--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\תכנות\year 2\בדיקות ואיכות\final\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF315140-B9EE-4DA9-A76D-054E9EEEE691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54E28B-AE35-4F39-9427-2E07062F63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>girl</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044269E-8E80-4700-AB14-691E1B5F57AC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -450,7 +453,7 @@
     <col min="5" max="5" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,6 +488,9 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\תכנות\year 2\בדיקות ואיכות\final\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54E28B-AE35-4F39-9427-2E07062F63FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D7088-56BF-4666-A7E5-4C5818784653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>balance</t>
+  </si>
+  <si>
+    <t>moshe1</t>
+  </si>
+  <si>
+    <t>Mm1122334!</t>
+  </si>
+  <si>
+    <t>moses@gmail.com</t>
+  </si>
+  <si>
+    <t>boy</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044269E-8E80-4700-AB14-691E1B5F57AC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -493,6 +505,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>206676850</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\תכנות\year 2\בדיקות ואיכות\final\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\source\repos\testing_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D7088-56BF-4666-A7E5-4C5818784653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629023B-87E7-4C20-A663-62203C6097C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11175" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -78,17 +76,35 @@
   </si>
   <si>
     <t>boy</t>
+  </si>
+  <si>
+    <t>hliran2@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>liran12</t>
+  </si>
+  <si>
+    <t>Hliran2@</t>
+  </si>
+  <si>
+    <t>hliran2</t>
+  </si>
+  <si>
+    <t>hliran3@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -450,22 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044269E-8E80-4700-AB14-691E1B5F57AC}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -522,6 +538,46 @@
         <v>13</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>207329186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>207329186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\source\repos\testing_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629023B-87E7-4C20-A663-62203C6097C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11175" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>hliran2</t>
   </si>
   <si>
-    <t>hliran3@</t>
+    <t>hliran2@</t>
   </si>
 </sst>
 </file>
@@ -472,9 +472,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\source\repos\testing_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" firstSheet="0" activeTab="0" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Users" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -28,125 +29,146 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>liora18</t>
-  </si>
-  <si>
-    <t>liora18!</t>
-  </si>
-  <si>
-    <t>liora@gmail.com</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>moshe1</t>
-  </si>
-  <si>
-    <t>Mm1122334!</t>
-  </si>
-  <si>
-    <t>moses@gmail.com</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>hliran2@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>liran12</t>
-  </si>
-  <si>
-    <t>Hliran2@</t>
-  </si>
-  <si>
-    <t>hliran2</t>
-  </si>
-  <si>
-    <t>hliran2@</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Username</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>balance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liora18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liora18!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liora@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>girl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moshe1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mm1122334!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moses@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>boy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hliran2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hliran2@</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hliran2@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liran12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hliran2@</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m@g.c</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Aptos Narrow"/>
+      <x:family val="2"/>
+      <x:charset val="177"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,123 +487,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044269E-8E80-4700-AB14-691E1B5F57AC}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>206872871</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>206676850</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>207329186</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>207329186</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{C044269E-8E80-4700-AB14-691E1B5F57AC}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F5"/>
+  <x:sheetViews>
+    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <x:selection activeCell="D7" sqref="D7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.332031" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.75" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="27.25" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.25" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>206872871</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0">
+        <x:v>206676850</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="0">
+        <x:v>207329186</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C5" s="0">
+        <x:v>207329186</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
+        <x:v>960</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -623,7 +623,187 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>960</x:v>
+        <x:v>1009</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -623,7 +623,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1009</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -803,6 +803,726 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F15" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F44" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F45" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F46" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F50" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F51" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1526,6 +1526,86 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="52" spans="1:6">
+      <x:c r="A52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F52" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="A53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F53" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="A54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F54" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="A55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -623,7 +623,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>1002</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1603,6 +1603,86 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="A56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F56" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="A57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F57" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="A58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="A59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F59" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97254\source\repos\testing_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A74226-0FA9-4ECB-B120-C7DCFBB2F3DD}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" firstSheet="0" activeTab="0" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,12 @@
   <x:si>
     <x:t>m@g.c</x:t>
   </x:si>
+  <x:si>
+    <x:t>udi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>udi@udi</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -116,10 +122,19 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
+      <x:name val="Aptos Narrow"/>
+      <x:family val="2"/>
+      <x:charset val="177"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
       <x:name val="Aptos Narrow"/>
       <x:family val="2"/>
       <x:charset val="177"/>
@@ -150,13 +165,19 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,22 +512,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F5"/>
+  <x:dimension ref="A1:F67"/>
   <x:sheetViews>
-    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="D7" sqref="D7"/>
+    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <x:selection activeCell="F67" sqref="F67"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14"/>
+  <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="15.332031" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.375" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="20.75" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="27.25" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="13.25" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -526,7 +547,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -546,7 +567,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -566,7 +587,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A4" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -586,7 +607,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -606,7 +627,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -623,10 +644,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1002</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A7" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -646,7 +667,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -666,7 +687,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:6">
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -686,7 +707,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6">
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -706,7 +727,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6">
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A11" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -726,7 +747,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A12" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -746,7 +767,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -766,7 +787,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A14" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -786,7 +807,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:6">
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A15" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -806,7 +827,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6">
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A16" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -826,7 +847,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6">
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A17" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -846,7 +867,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6">
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A18" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -866,7 +887,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:6">
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A19" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -886,7 +907,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:6">
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A20" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -906,7 +927,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:6">
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A21" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -926,7 +947,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:6">
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A22" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -946,7 +967,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:6">
+    <x:row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A23" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -966,7 +987,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:6">
+    <x:row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A24" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -986,7 +1007,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:6">
+    <x:row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A25" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1006,7 +1027,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6">
+    <x:row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A26" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1026,7 +1047,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:6">
+    <x:row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1046,7 +1067,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:6">
+    <x:row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A28" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1066,7 +1087,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
+    <x:row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A29" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1086,7 +1107,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:6">
+    <x:row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A30" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1106,7 +1127,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:6">
+    <x:row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A31" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1126,7 +1147,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:6">
+    <x:row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A32" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1146,7 +1167,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:6">
+    <x:row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A33" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1166,7 +1187,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:6">
+    <x:row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A34" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1186,7 +1207,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:6">
+    <x:row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A35" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1206,7 +1227,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:6">
+    <x:row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A36" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1226,7 +1247,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:6">
+    <x:row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A37" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1246,7 +1267,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:6">
+    <x:row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A38" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1266,7 +1287,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:6">
+    <x:row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A39" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1286,7 +1307,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:6">
+    <x:row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A40" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1306,7 +1327,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:6">
+    <x:row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A41" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1326,7 +1347,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:6">
+    <x:row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A42" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1346,7 +1367,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:6">
+    <x:row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A43" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1366,7 +1387,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:6">
+    <x:row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A44" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1386,7 +1407,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:6">
+    <x:row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A45" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1406,7 +1427,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:6">
+    <x:row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A46" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1426,7 +1447,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:6">
+    <x:row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A47" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1446,7 +1467,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:6">
+    <x:row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A48" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1466,7 +1487,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:6">
+    <x:row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A49" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1486,7 +1507,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:6">
+    <x:row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A50" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1506,7 +1527,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:6">
+    <x:row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A51" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1526,7 +1547,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:6">
+    <x:row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A52" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1546,7 +1567,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:6">
+    <x:row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A53" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1566,7 +1587,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:6">
+    <x:row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A54" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1586,7 +1607,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:6">
+    <x:row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A55" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1606,7 +1627,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:6">
+    <x:row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A56" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1626,7 +1647,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:6">
+    <x:row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A57" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1646,7 +1667,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:6">
+    <x:row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A58" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1666,7 +1687,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:6">
+    <x:row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A59" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1686,7 +1707,190 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F61" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F63" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F64" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F65" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F66" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A67" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C67" s="0">
+        <x:v>1234</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F67" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="A68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F68" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="D67" r:id="rId6"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1887,6 +1887,166 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="A69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F69" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="A70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F70" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="A71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="A72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F72" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="A73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F73" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="A74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F74" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="A75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F75" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="A76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F76" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -32,83 +32,6 @@
     </x:ext>
   </x:extLst>
 </x:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Username</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>balance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>liora18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>liora18!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>liora@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>girl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moshe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mm1122334!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moses@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hliran2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hliran2@</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hliran2@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>liran12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hliran2@</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m@g.c</x:t>
-  </x:si>
-</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,7 +546,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1009</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -803,6 +726,726 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F15" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F44" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F45" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F46" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:6">
+      <x:c r="A49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:6">
+      <x:c r="A50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F50" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:6">
+      <x:c r="A51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F51" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -644,7 +644,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>1005</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2044,6 +2044,26 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F76" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F77" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2047,6 +2047,126 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F80" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -113,6 +113,33 @@
   </x:si>
   <x:si>
     <x:t>udi@udi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>udiel123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>udiel@udiel.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liran88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liran8812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>li@kkl.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>liran123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lira@jj.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2167,9 +2194,149 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F86" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F87" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F88" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2334,6 +2334,46 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId7"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A74226-0FA9-4ECB-B120-C7DCFBB2F3DD}"/>
@@ -539,9 +539,9 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F67"/>
+  <x:dimension ref="A1:F91"/>
   <x:sheetViews>
-    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <x:selection activeCell="F67" sqref="F67"/>
     </x:sheetView>
   </x:sheetViews>
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:6">
+    <x:row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A68" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1914,7 +1914,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:6">
+    <x:row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A69" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1934,7 +1934,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:6">
+    <x:row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A70" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1954,7 +1954,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:6">
+    <x:row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A71" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1974,7 +1974,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:6">
+    <x:row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A72" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1994,7 +1994,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:6">
+    <x:row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A73" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2014,7 +2014,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:6">
+    <x:row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A74" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2034,7 +2034,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:6">
+    <x:row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A75" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2054,7 +2054,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:6">
+    <x:row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A76" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2074,7 +2074,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:6">
+    <x:row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A77" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2094,7 +2094,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:6">
+    <x:row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A78" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2114,7 +2114,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:6">
+    <x:row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A79" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2134,7 +2134,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:6">
+    <x:row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A80" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2154,7 +2154,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:6">
+    <x:row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A81" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2174,7 +2174,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:6">
+    <x:row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A82" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2194,7 +2194,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:6">
+    <x:row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A83" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2214,7 +2214,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:6">
+    <x:row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A84" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2234,7 +2234,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:6">
+    <x:row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A85" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2254,7 +2254,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:6">
+    <x:row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A86" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -2274,7 +2274,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:6">
+    <x:row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A87" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2294,7 +2294,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:6">
+    <x:row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A88" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -2314,7 +2314,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:6">
+    <x:row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A89" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -2331,6 +2331,66 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A90" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A91" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F92" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2374,9 +2374,129 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1008</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,6 +2391,166 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F100" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2554,6 +2554,46 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="A102" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F102" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId7"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -97,7 +97,7 @@
     <x:t>Hliran2@</x:t>
   </x:si>
   <x:si>
-    <x:t>moses</x:t>
+    <x:t>udi2</x:t>
   </x:si>
   <x:si>
     <x:t>bro</x:t>
@@ -107,6 +107,9 @@
   </x:si>
   <x:si>
     <x:t>m@g.c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moses</x:t>
   </x:si>
   <x:si>
     <x:t>udi</x:t>
@@ -649,7 +652,7 @@
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>21</x:v>
@@ -669,7 +672,7 @@
     </x:row>
     <x:row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>21</x:v>
@@ -689,7 +692,7 @@
     </x:row>
     <x:row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>21</x:v>
@@ -709,7 +712,7 @@
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -729,7 +732,7 @@
     </x:row>
     <x:row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
@@ -749,7 +752,7 @@
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>21</x:v>
@@ -769,7 +772,7 @@
     </x:row>
     <x:row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>21</x:v>
@@ -789,7 +792,7 @@
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>21</x:v>
@@ -809,7 +812,7 @@
     </x:row>
     <x:row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>21</x:v>
@@ -829,7 +832,7 @@
     </x:row>
     <x:row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>21</x:v>
@@ -849,7 +852,7 @@
     </x:row>
     <x:row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>21</x:v>
@@ -869,7 +872,7 @@
     </x:row>
     <x:row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
@@ -889,7 +892,7 @@
     </x:row>
     <x:row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>21</x:v>
@@ -909,7 +912,7 @@
     </x:row>
     <x:row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>21</x:v>
@@ -929,7 +932,7 @@
     </x:row>
     <x:row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
@@ -949,7 +952,7 @@
     </x:row>
     <x:row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>21</x:v>
@@ -969,7 +972,7 @@
     </x:row>
     <x:row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>21</x:v>
@@ -989,7 +992,7 @@
     </x:row>
     <x:row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
@@ -1009,7 +1012,7 @@
     </x:row>
     <x:row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>21</x:v>
@@ -1029,7 +1032,7 @@
     </x:row>
     <x:row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>21</x:v>
@@ -1049,7 +1052,7 @@
     </x:row>
     <x:row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
@@ -1069,7 +1072,7 @@
     </x:row>
     <x:row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>21</x:v>
@@ -1089,7 +1092,7 @@
     </x:row>
     <x:row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1109,7 +1112,7 @@
     </x:row>
     <x:row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>21</x:v>
@@ -1129,7 +1132,7 @@
     </x:row>
     <x:row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A31" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>21</x:v>
@@ -1149,7 +1152,7 @@
     </x:row>
     <x:row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A32" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
@@ -1169,7 +1172,7 @@
     </x:row>
     <x:row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>21</x:v>
@@ -1189,7 +1192,7 @@
     </x:row>
     <x:row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A34" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>21</x:v>
@@ -1209,7 +1212,7 @@
     </x:row>
     <x:row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -1229,7 +1232,7 @@
     </x:row>
     <x:row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A36" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>21</x:v>
@@ -1249,7 +1252,7 @@
     </x:row>
     <x:row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>21</x:v>
@@ -1269,7 +1272,7 @@
     </x:row>
     <x:row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
@@ -1289,7 +1292,7 @@
     </x:row>
     <x:row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>21</x:v>
@@ -1309,7 +1312,7 @@
     </x:row>
     <x:row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -1329,7 +1332,7 @@
     </x:row>
     <x:row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>21</x:v>
@@ -1349,7 +1352,7 @@
     </x:row>
     <x:row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A42" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
@@ -1369,7 +1372,7 @@
     </x:row>
     <x:row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>21</x:v>
@@ -1389,7 +1392,7 @@
     </x:row>
     <x:row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>21</x:v>
@@ -1409,7 +1412,7 @@
     </x:row>
     <x:row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
@@ -1429,7 +1432,7 @@
     </x:row>
     <x:row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A46" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>21</x:v>
@@ -1449,7 +1452,7 @@
     </x:row>
     <x:row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A47" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>21</x:v>
@@ -1469,7 +1472,7 @@
     </x:row>
     <x:row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
@@ -1489,7 +1492,7 @@
     </x:row>
     <x:row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A49" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>21</x:v>
@@ -1509,7 +1512,7 @@
     </x:row>
     <x:row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A50" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>21</x:v>
@@ -1529,7 +1532,7 @@
     </x:row>
     <x:row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A51" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
@@ -1549,7 +1552,7 @@
     </x:row>
     <x:row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A52" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>21</x:v>
@@ -1569,7 +1572,7 @@
     </x:row>
     <x:row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A53" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
@@ -1589,7 +1592,7 @@
     </x:row>
     <x:row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A54" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>21</x:v>
@@ -1609,7 +1612,7 @@
     </x:row>
     <x:row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A55" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>21</x:v>
@@ -1629,7 +1632,7 @@
     </x:row>
     <x:row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A56" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
@@ -1649,7 +1652,7 @@
     </x:row>
     <x:row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A57" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>21</x:v>
@@ -1669,7 +1672,7 @@
     </x:row>
     <x:row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A58" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>21</x:v>
@@ -1689,7 +1692,7 @@
     </x:row>
     <x:row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A59" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
@@ -1709,7 +1712,7 @@
     </x:row>
     <x:row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A60" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>21</x:v>
@@ -1729,7 +1732,7 @@
     </x:row>
     <x:row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A61" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>21</x:v>
@@ -1749,7 +1752,7 @@
     </x:row>
     <x:row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A62" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
@@ -1769,7 +1772,7 @@
     </x:row>
     <x:row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A63" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>21</x:v>
@@ -1789,7 +1792,7 @@
     </x:row>
     <x:row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A64" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>21</x:v>
@@ -1809,7 +1812,7 @@
     </x:row>
     <x:row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A65" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
@@ -1829,7 +1832,7 @@
     </x:row>
     <x:row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A66" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>21</x:v>
@@ -1849,16 +1852,16 @@
     </x:row>
     <x:row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A67" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C67" s="0">
         <x:v>1234</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>17</x:v>
@@ -1869,7 +1872,7 @@
     </x:row>
     <x:row r="68" spans="1:6">
       <x:c r="A68" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>21</x:v>
@@ -1889,7 +1892,7 @@
     </x:row>
     <x:row r="69" spans="1:6">
       <x:c r="A69" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>21</x:v>
@@ -1909,7 +1912,7 @@
     </x:row>
     <x:row r="70" spans="1:6">
       <x:c r="A70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>21</x:v>
@@ -1929,7 +1932,7 @@
     </x:row>
     <x:row r="71" spans="1:6">
       <x:c r="A71" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>21</x:v>
@@ -1949,7 +1952,7 @@
     </x:row>
     <x:row r="72" spans="1:6">
       <x:c r="A72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>21</x:v>
@@ -1969,7 +1972,7 @@
     </x:row>
     <x:row r="73" spans="1:6">
       <x:c r="A73" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>21</x:v>
@@ -1989,7 +1992,7 @@
     </x:row>
     <x:row r="74" spans="1:6">
       <x:c r="A74" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>21</x:v>
@@ -2009,7 +2012,7 @@
     </x:row>
     <x:row r="75" spans="1:6">
       <x:c r="A75" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>21</x:v>
@@ -2029,7 +2032,7 @@
     </x:row>
     <x:row r="76" spans="1:6">
       <x:c r="A76" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>21</x:v>
@@ -2044,6 +2047,566 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F76" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F80" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F86" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F87" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F88" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F100" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="A102" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F102" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:6">
+      <x:c r="A103" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F103" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6">
+      <x:c r="A104" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F104" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -644,7 +644,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>1021</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2047,9 +2047,709 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F80" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F86" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F87" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F88" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F100" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="A102" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F102" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:6">
+      <x:c r="A103" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F103" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6">
+      <x:c r="A104" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F104" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:6">
+      <x:c r="A105" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F105" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:6">
+      <x:c r="A106" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F106" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:6">
+      <x:c r="A107" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F107" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:6">
+      <x:c r="A108" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F108" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:6">
+      <x:c r="A109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F109" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:6">
+      <x:c r="A110" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F110" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:6">
+      <x:c r="A111" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F111" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -644,7 +644,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2047,9 +2047,749 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="A77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F77" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="A78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F78" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="A79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F79" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="A80" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F80" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="A81" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F81" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="A82" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F82" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="A83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F83" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="A84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F84" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="A85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F85" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="A86" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F86" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="A87" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F87" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="A88" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F88" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="A89" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F89" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="A90" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F90" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="A91" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F91" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="A92" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F92" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="A93" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F93" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="A94" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F94" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="A95" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F95" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="A96" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F96" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="A97" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F97" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="A100" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F100" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="A101" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F101" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="A102" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F102" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:6">
+      <x:c r="A103" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F103" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6">
+      <x:c r="A104" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F104" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:6">
+      <x:c r="A105" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F105" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:6">
+      <x:c r="A106" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F106" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:6">
+      <x:c r="A107" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F107" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:6">
+      <x:c r="A108" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F108" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:6">
+      <x:c r="A109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F109" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:6">
+      <x:c r="A110" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F110" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:6">
+      <x:c r="A111" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F111" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:6">
+      <x:c r="A112" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F112" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:6">
+      <x:c r="A113" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F113" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2594,9 +2594,89 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="103" spans="1:6">
+      <x:c r="A103" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C103" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E103" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F103" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:6">
+      <x:c r="A104" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C104" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F104" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:6">
+      <x:c r="A105" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C105" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E105" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F105" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:6">
+      <x:c r="A106" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C106" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E106" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F106" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2674,6 +2674,166 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="107" spans="1:6">
+      <x:c r="A107" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C107" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E107" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F107" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:6">
+      <x:c r="A108" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C108" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D108" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E108" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F108" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:6">
+      <x:c r="A109" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C109" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D109" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E109" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F109" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:6">
+      <x:c r="A110" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C110" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D110" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E110" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F110" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:6">
+      <x:c r="A111" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C111" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D111" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E111" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F111" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:6">
+      <x:c r="A112" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C112" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D112" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E112" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F112" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:6">
+      <x:c r="A113" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C113" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D113" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E113" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F113" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:6">
+      <x:c r="A114" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C114" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D114" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E114" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F114" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2834,6 +2834,146 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="115" spans="1:6">
+      <x:c r="A115" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C115" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D115" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E115" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F115" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:6">
+      <x:c r="A116" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C116" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D116" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E116" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F116" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:6">
+      <x:c r="A117" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C117" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D117" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E117" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F117" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:6">
+      <x:c r="A118" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C118" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D118" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E118" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F118" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:6">
+      <x:c r="A119" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C119" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D119" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E119" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F119" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:6">
+      <x:c r="A120" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C120" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D120" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E120" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F120" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:6">
+      <x:c r="A121" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C121" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D121" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E121" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F121" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2974,6 +2974,46 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="122" spans="1:6">
+      <x:c r="A122" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C122" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D122" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E122" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F122" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:6">
+      <x:c r="A123" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C123" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D123" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E123" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F123" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3014,6 +3014,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="124" spans="1:6">
+      <x:c r="A124" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C124" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D124" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E124" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F124" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3034,6 +3034,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="125" spans="1:6">
+      <x:c r="A125" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C125" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D125" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E125" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F125" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3054,6 +3054,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="126" spans="1:6">
+      <x:c r="A126" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C126" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D126" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E126" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F126" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>10010</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3074,9 +3074,229 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="127" spans="1:6">
+      <x:c r="A127" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F127" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:6">
+      <x:c r="A128" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F128" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:6">
+      <x:c r="A129" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F129" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:6">
+      <x:c r="A130" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F130" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:6">
+      <x:c r="A131" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F131" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:6">
+      <x:c r="A132" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F132" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:6">
+      <x:c r="A133" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F133" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:6">
+      <x:c r="A134" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F134" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:6">
+      <x:c r="A135" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F135" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:6">
+      <x:c r="A136" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F136" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:6">
+      <x:c r="A137" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F137" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2494,6 +2494,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="A98" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F98" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2514,6 +2514,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="A99" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F99" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId6"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>10010</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3294,9 +3294,69 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="138" spans="1:6">
+      <x:c r="A138" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F138" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:6">
+      <x:c r="A139" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F139" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:6">
+      <x:c r="A140" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F140" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>10010</x:v>
+        <x:v>1006</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3291,6 +3291,286 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F137" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:6">
+      <x:c r="A138" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F138" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:6">
+      <x:c r="A139" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F139" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:6">
+      <x:c r="A140" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F140" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:6">
+      <x:c r="A141" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F141" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:6">
+      <x:c r="A142" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F142" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:6">
+      <x:c r="A143" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F143" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:6">
+      <x:c r="A144" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F144" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:6">
+      <x:c r="A145" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F145" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:6">
+      <x:c r="A146" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F146" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:6">
+      <x:c r="A147" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F147" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:6">
+      <x:c r="A148" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F148" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:6">
+      <x:c r="A149" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F149" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:6">
+      <x:c r="A150" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F150" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:6">
+      <x:c r="A151" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F151" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -140,6 +140,18 @@
   </x:si>
   <x:si>
     <x:t>lira@jj.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilan99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilan9912!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>313737652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ishtilman9912@gmail.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3074,9 +3086,3429 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="127" spans="1:6">
+      <x:c r="A127" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C127" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D127" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E127" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F127" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:6">
+      <x:c r="A128" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C128" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D128" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E128" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F128" s="0">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:6">
+      <x:c r="A129" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C129" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D129" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E129" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F129" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:6">
+      <x:c r="A130" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C130" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D130" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E130" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F130" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:6">
+      <x:c r="A131" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F131" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:6">
+      <x:c r="A132" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F132" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:6">
+      <x:c r="A133" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F133" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:6">
+      <x:c r="A134" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F134" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:6">
+      <x:c r="A135" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F135" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:6">
+      <x:c r="A136" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F136" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:6">
+      <x:c r="A137" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F137" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:6">
+      <x:c r="A138" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F138" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:6">
+      <x:c r="A139" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F139" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:6">
+      <x:c r="A140" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F140" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:6">
+      <x:c r="A141" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F141" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:6">
+      <x:c r="A142" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F142" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:6">
+      <x:c r="A143" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F143" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:6">
+      <x:c r="A144" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F144" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:6">
+      <x:c r="A145" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F145" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:6">
+      <x:c r="A146" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F146" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:6">
+      <x:c r="A147" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F147" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:6">
+      <x:c r="A148" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F148" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:6">
+      <x:c r="A149" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F149" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:6">
+      <x:c r="A150" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F150" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:6">
+      <x:c r="A151" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F151" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:6">
+      <x:c r="A152" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F152" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:6">
+      <x:c r="A153" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F153" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:6">
+      <x:c r="A154" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F154" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:6">
+      <x:c r="A155" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F155" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:6">
+      <x:c r="A156" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F156" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:6">
+      <x:c r="A157" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F157" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:6">
+      <x:c r="A158" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F158" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:6">
+      <x:c r="A159" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F159" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:6">
+      <x:c r="A160" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F160" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:6">
+      <x:c r="A161" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F161" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6">
+      <x:c r="A162" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F162" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:6">
+      <x:c r="A163" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F163" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:6">
+      <x:c r="A164" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F164" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:6">
+      <x:c r="A165" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F165" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:6">
+      <x:c r="A166" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F166" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:6">
+      <x:c r="A167" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F167" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:6">
+      <x:c r="A168" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F168" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:6">
+      <x:c r="A169" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C169" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D169" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E169" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F169" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:6">
+      <x:c r="A170" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C170" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D170" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E170" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F170" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:6">
+      <x:c r="A171" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C171" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D171" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E171" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F171" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:6">
+      <x:c r="A172" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C172" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D172" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E172" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F172" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:6">
+      <x:c r="A173" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C173" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D173" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E173" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F173" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:6">
+      <x:c r="A174" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C174" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D174" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E174" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F174" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:6">
+      <x:c r="A175" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C175" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D175" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E175" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F175" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:6">
+      <x:c r="A176" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C176" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D176" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E176" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F176" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:6">
+      <x:c r="A177" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C177" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D177" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E177" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F177" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:6">
+      <x:c r="A178" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C178" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D178" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E178" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F178" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:6">
+      <x:c r="A179" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C179" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D179" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E179" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F179" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:6">
+      <x:c r="A180" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C180" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D180" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E180" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F180" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:6">
+      <x:c r="A181" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C181" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D181" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E181" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F181" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:6">
+      <x:c r="A182" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C182" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D182" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E182" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F182" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:6">
+      <x:c r="A183" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C183" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D183" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E183" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F183" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:6">
+      <x:c r="A184" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C184" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D184" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E184" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F184" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:6">
+      <x:c r="A185" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C185" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D185" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E185" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F185" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:6">
+      <x:c r="A186" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C186" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D186" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E186" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F186" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:6">
+      <x:c r="A187" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C187" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D187" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E187" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F187" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:6">
+      <x:c r="A188" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C188" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D188" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E188" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F188" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:6">
+      <x:c r="A189" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C189" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D189" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E189" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F189" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:6">
+      <x:c r="A190" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C190" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D190" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E190" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F190" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:6">
+      <x:c r="A191" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C191" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D191" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E191" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F191" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:6">
+      <x:c r="A192" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C192" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D192" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E192" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F192" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:6">
+      <x:c r="A193" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C193" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D193" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E193" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F193" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:6">
+      <x:c r="A194" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C194" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D194" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E194" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F194" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:6">
+      <x:c r="A195" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C195" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D195" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E195" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F195" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:6">
+      <x:c r="A196" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C196" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D196" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E196" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F196" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:6">
+      <x:c r="A197" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C197" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D197" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E197" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F197" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:6">
+      <x:c r="A198" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C198" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D198" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E198" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F198" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:6">
+      <x:c r="A199" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C199" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D199" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E199" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F199" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:6">
+      <x:c r="A200" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C200" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D200" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E200" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F200" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:6">
+      <x:c r="A201" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C201" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D201" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E201" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F201" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:6">
+      <x:c r="A202" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C202" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D202" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E202" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F202" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:6">
+      <x:c r="A203" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C203" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D203" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E203" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F203" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:6">
+      <x:c r="A204" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C204" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D204" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E204" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F204" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:6">
+      <x:c r="A205" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C205" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D205" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E205" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F205" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:6">
+      <x:c r="A206" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C206" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D206" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E206" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F206" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:6">
+      <x:c r="A207" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C207" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D207" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E207" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F207" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:6">
+      <x:c r="A208" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C208" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D208" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E208" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F208" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:6">
+      <x:c r="A209" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C209" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D209" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E209" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F209" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:6">
+      <x:c r="A210" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C210" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D210" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E210" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F210" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:6">
+      <x:c r="A211" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C211" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D211" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E211" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F211" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:6">
+      <x:c r="A212" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C212" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D212" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E212" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F212" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:6">
+      <x:c r="A213" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C213" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D213" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E213" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F213" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:6">
+      <x:c r="A214" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C214" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D214" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E214" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F214" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:6">
+      <x:c r="A215" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C215" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D215" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E215" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F215" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:6">
+      <x:c r="A216" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C216" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D216" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E216" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F216" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:6">
+      <x:c r="A217" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C217" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D217" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E217" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F217" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:6">
+      <x:c r="A218" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C218" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D218" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E218" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F218" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:6">
+      <x:c r="A219" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C219" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D219" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E219" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F219" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:6">
+      <x:c r="A220" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C220" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D220" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E220" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F220" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:6">
+      <x:c r="A221" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C221" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D221" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E221" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F221" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:6">
+      <x:c r="A222" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C222" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D222" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E222" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F222" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:6">
+      <x:c r="A223" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C223" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D223" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E223" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F223" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:6">
+      <x:c r="A224" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C224" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D224" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E224" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F224" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:6">
+      <x:c r="A225" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C225" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D225" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E225" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F225" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:6">
+      <x:c r="A226" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C226" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D226" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E226" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F226" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:6">
+      <x:c r="A227" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C227" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D227" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E227" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F227" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:6">
+      <x:c r="A228" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C228" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D228" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E228" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F228" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:6">
+      <x:c r="A229" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C229" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D229" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E229" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F229" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:6">
+      <x:c r="A230" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C230" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D230" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E230" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F230" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:6">
+      <x:c r="A231" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C231" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D231" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E231" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F231" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:6">
+      <x:c r="A232" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C232" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D232" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E232" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F232" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:6">
+      <x:c r="A233" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C233" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D233" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E233" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F233" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:6">
+      <x:c r="A234" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C234" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D234" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E234" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F234" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:6">
+      <x:c r="A235" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C235" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D235" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E235" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F235" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:6">
+      <x:c r="A236" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C236" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D236" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E236" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F236" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:6">
+      <x:c r="A237" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C237" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D237" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E237" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F237" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:6">
+      <x:c r="A238" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C238" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D238" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E238" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F238" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:6">
+      <x:c r="A239" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C239" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D239" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E239" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F239" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:6">
+      <x:c r="A240" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C240" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D240" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E240" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F240" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:6">
+      <x:c r="A241" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C241" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D241" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E241" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F241" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:6">
+      <x:c r="A242" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C242" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D242" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E242" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F242" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:6">
+      <x:c r="A243" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C243" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D243" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E243" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F243" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:6">
+      <x:c r="A244" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C244" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D244" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E244" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F244" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:6">
+      <x:c r="A245" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C245" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D245" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E245" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F245" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:6">
+      <x:c r="A246" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C246" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D246" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E246" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F246" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:6">
+      <x:c r="A247" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C247" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D247" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E247" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F247" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:6">
+      <x:c r="A248" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C248" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D248" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E248" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F248" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:6">
+      <x:c r="A249" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C249" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D249" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E249" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F249" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:6">
+      <x:c r="A250" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C250" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D250" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E250" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F250" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:6">
+      <x:c r="A251" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C251" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D251" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E251" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F251" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:6">
+      <x:c r="A252" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C252" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D252" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E252" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F252" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:6">
+      <x:c r="A253" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D253" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F253" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:6">
+      <x:c r="A254" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D254" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F254" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:6">
+      <x:c r="A255" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D255" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E255" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F255" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:6">
+      <x:c r="A256" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D256" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E256" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F256" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:6">
+      <x:c r="A257" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D257" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E257" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F257" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:6">
+      <x:c r="A258" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D258" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E258" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F258" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:6">
+      <x:c r="A259" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D259" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E259" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F259" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:6">
+      <x:c r="A260" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D260" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E260" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F260" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:6">
+      <x:c r="A261" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C261" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D261" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E261" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F261" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:6">
+      <x:c r="A262" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C262" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D262" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E262" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F262" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:6">
+      <x:c r="A263" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C263" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D263" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E263" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F263" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:6">
+      <x:c r="A264" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C264" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D264" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E264" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F264" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:6">
+      <x:c r="A265" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C265" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D265" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E265" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F265" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:6">
+      <x:c r="A266" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C266" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D266" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E266" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F266" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:6">
+      <x:c r="A267" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D267" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E267" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F267" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:6">
+      <x:c r="A268" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C268" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D268" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E268" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F268" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:6">
+      <x:c r="A269" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C269" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D269" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E269" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F269" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:6">
+      <x:c r="A270" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C270" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D270" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E270" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F270" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:6">
+      <x:c r="A271" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C271" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D271" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E271" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F271" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:6">
+      <x:c r="A272" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C272" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D272" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E272" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F272" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:6">
+      <x:c r="A273" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C273" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D273" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E273" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F273" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:6">
+      <x:c r="A274" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C274" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D274" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E274" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F274" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:6">
+      <x:c r="A275" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C275" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D275" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E275" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F275" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:6">
+      <x:c r="A276" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C276" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D276" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E276" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F276" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:6">
+      <x:c r="A277" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C277" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D277" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E277" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F277" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:6">
+      <x:c r="A278" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C278" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D278" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E278" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F278" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:6">
+      <x:c r="A279" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C279" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D279" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E279" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F279" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:6">
+      <x:c r="A280" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C280" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D280" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E280" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F280" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:6">
+      <x:c r="A281" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C281" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D281" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E281" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F281" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:6">
+      <x:c r="A282" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B282" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C282" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D282" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E282" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F282" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:6">
+      <x:c r="A283" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C283" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D283" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E283" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F283" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:6">
+      <x:c r="A284" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B284" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C284" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D284" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E284" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F284" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:6">
+      <x:c r="A285" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C285" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D285" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E285" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F285" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:6">
+      <x:c r="A286" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C286" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D286" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E286" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F286" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:6">
+      <x:c r="A287" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C287" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D287" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E287" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F287" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:6">
+      <x:c r="A288" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C288" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D288" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E288" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F288" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:6">
+      <x:c r="A289" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C289" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D289" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E289" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F289" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:6">
+      <x:c r="A290" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C290" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D290" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E290" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F290" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:6">
+      <x:c r="A291" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C291" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D291" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E291" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F291" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:6">
+      <x:c r="A292" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C292" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D292" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E292" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F292" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:6">
+      <x:c r="A293" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C293" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D293" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E293" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F293" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:6">
+      <x:c r="A294" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C294" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D294" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E294" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F294" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:6">
+      <x:c r="A295" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C295" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D295" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E295" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F295" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:6">
+      <x:c r="A296" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C296" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D296" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E296" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F296" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:6">
+      <x:c r="A297" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C297" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D297" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E297" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F297" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1006</x:v>
+        <x:v>1012</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3574,9 +3574,49 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="152" spans="1:6">
+      <x:c r="A152" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F152" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:6">
+      <x:c r="A153" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F153" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1006</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3571,6 +3571,26 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F151" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:6">
+      <x:c r="A152" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F152" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3594,6 +3594,26 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="153" spans="1:6">
+      <x:c r="A153" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F153" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId7"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -648,7 +648,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>1000</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,12 +668,12 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0">
-        <x:v>98295</x:v>
+        <x:v>98260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D7" r:id="rId7"/>
+    <x:hyperlink ref="D7" r:id="rId8"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -140,6 +140,18 @@
   </x:si>
   <x:si>
     <x:t>lira@jj.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dianka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D12345!1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diana@hey.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3614,6 +3626,246 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="154" spans="1:6">
+      <x:c r="A154" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F154" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:6">
+      <x:c r="A155" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F155" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:6">
+      <x:c r="A156" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F156" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:6">
+      <x:c r="A157" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F157" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:6">
+      <x:c r="A158" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F158" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:6">
+      <x:c r="A159" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F159" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:6">
+      <x:c r="A160" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F160" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:6">
+      <x:c r="A161" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F161" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6">
+      <x:c r="A162" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F162" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:6">
+      <x:c r="A163" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F163" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:6">
+      <x:c r="A164" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F164" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:6">
+      <x:c r="A165" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F165" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="D67" r:id="rId7"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -648,7 +648,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>520</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -648,7 +648,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>520</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -668,12 +668,12 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F7" s="0">
-        <x:v>98295</x:v>
+        <x:v>98278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D7" r:id="rId7"/>
+    <x:hyperlink ref="D7" r:id="rId8"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -683,7 +683,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>665</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A74226-0FA9-4ECB-B120-C7DCFBB2F3DD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9833D114-EE10-414E-B169-094C1248576A}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </x:bookViews>
@@ -152,6 +152,18 @@
   </x:si>
   <x:si>
     <x:t>Diana@hey.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin123!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123123123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin@admin.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -551,10 +563,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F91"/>
+  <x:dimension ref="A1:F166"/>
   <x:sheetViews>
-    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <x:selection activeCell="F67" sqref="F67"/>
+    <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <x:selection activeCell="F166" sqref="F166"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>165</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2386,7 +2398,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:6">
+    <x:row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A92" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2406,7 +2418,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:6">
+    <x:row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A93" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2426,7 +2438,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:6">
+    <x:row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A94" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2446,7 +2458,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:6">
+    <x:row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A95" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2466,7 +2478,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:6">
+    <x:row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A96" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2486,7 +2498,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:6">
+    <x:row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A97" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2506,7 +2518,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:6">
+    <x:row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A98" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2526,7 +2538,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:6">
+    <x:row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A99" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2546,7 +2558,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:6">
+    <x:row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A100" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2566,7 +2578,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:6">
+    <x:row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A101" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2586,7 +2598,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:6">
+    <x:row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A102" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2606,7 +2618,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:6">
+    <x:row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A103" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2626,7 +2638,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:6">
+    <x:row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A104" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2646,7 +2658,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:6">
+    <x:row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A105" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2666,7 +2678,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:6">
+    <x:row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A106" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2686,7 +2698,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:6">
+    <x:row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A107" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2706,7 +2718,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:6">
+    <x:row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A108" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2726,7 +2738,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:6">
+    <x:row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A109" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2746,7 +2758,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:6">
+    <x:row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A110" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2766,7 +2778,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:6">
+    <x:row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A111" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2786,7 +2798,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:6">
+    <x:row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A112" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2806,7 +2818,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:6">
+    <x:row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A113" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2826,7 +2838,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:6">
+    <x:row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A114" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2846,7 +2858,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:6">
+    <x:row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A115" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2866,7 +2878,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:6">
+    <x:row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A116" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2886,7 +2898,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:6">
+    <x:row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A117" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2906,7 +2918,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:6">
+    <x:row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A118" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2926,7 +2938,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:6">
+    <x:row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A119" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2946,7 +2958,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:6">
+    <x:row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A120" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2966,7 +2978,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:6">
+    <x:row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A121" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -2986,7 +2998,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:6">
+    <x:row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A122" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3006,7 +3018,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:6">
+    <x:row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A123" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3026,7 +3038,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:6">
+    <x:row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A124" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3046,7 +3058,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:6">
+    <x:row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A125" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3066,7 +3078,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:6">
+    <x:row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A126" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3086,7 +3098,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:6">
+    <x:row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A127" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3106,7 +3118,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:6">
+    <x:row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A128" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3126,7 +3138,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:6">
+    <x:row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A129" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3146,7 +3158,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:6">
+    <x:row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A130" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3166,7 +3178,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:6">
+    <x:row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A131" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3186,7 +3198,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:6">
+    <x:row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A132" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3206,7 +3218,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:6">
+    <x:row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A133" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3226,7 +3238,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:6">
+    <x:row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A134" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3246,7 +3258,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:6">
+    <x:row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A135" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3266,7 +3278,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:6">
+    <x:row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A136" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3286,7 +3298,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:6">
+    <x:row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A137" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3306,7 +3318,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:6">
+    <x:row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A138" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3326,7 +3338,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:6">
+    <x:row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A139" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3346,7 +3358,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:6">
+    <x:row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A140" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3366,7 +3378,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:6">
+    <x:row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A141" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3386,7 +3398,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:6">
+    <x:row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A142" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3406,7 +3418,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:6">
+    <x:row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A143" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3426,7 +3438,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:6">
+    <x:row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A144" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3446,7 +3458,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:6">
+    <x:row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A145" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3466,7 +3478,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:6">
+    <x:row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A146" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3486,7 +3498,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:6">
+    <x:row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A147" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3506,7 +3518,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:6">
+    <x:row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A148" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3526,7 +3538,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:6">
+    <x:row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A149" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3546,7 +3558,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:6">
+    <x:row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A150" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3566,7 +3578,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:6">
+    <x:row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A151" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3586,7 +3598,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:6">
+    <x:row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A152" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3606,7 +3618,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:6">
+    <x:row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A153" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3626,7 +3638,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:6">
+    <x:row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A154" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3646,7 +3658,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:6">
+    <x:row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A155" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -3666,7 +3678,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:6">
+    <x:row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A156" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3686,7 +3698,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:6">
+    <x:row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A157" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3706,7 +3718,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:6">
+    <x:row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A158" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3726,7 +3738,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:6">
+    <x:row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A159" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3746,7 +3758,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:6">
+    <x:row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A160" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3766,7 +3778,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:6">
+    <x:row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A161" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3786,7 +3798,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:6">
+    <x:row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A162" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3806,7 +3818,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:6">
+    <x:row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A163" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3826,7 +3838,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:6">
+    <x:row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A164" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3846,7 +3858,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:6">
+    <x:row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A165" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3864,11 +3876,31 @@
       </x:c>
       <x:c r="F165" s="0">
         <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A166" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F166" s="0">
+        <x:v>12225</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -97,25 +97,25 @@
     <x:t>Hliran2@</x:t>
   </x:si>
   <x:si>
+    <x:t>udiel123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m@g.c</x:t>
+  </x:si>
+  <x:si>
     <x:t>moses</x:t>
   </x:si>
   <x:si>
-    <x:t>bro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m@g.c</x:t>
-  </x:si>
-  <x:si>
     <x:t>udi</x:t>
   </x:si>
   <x:si>
     <x:t>udi@udi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>udiel123</x:t>
   </x:si>
   <x:si>
     <x:t>1234567</x:t>
@@ -700,7 +700,7 @@
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>21</x:v>
@@ -720,7 +720,7 @@
     </x:row>
     <x:row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>21</x:v>
@@ -740,7 +740,7 @@
     </x:row>
     <x:row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>21</x:v>
@@ -760,7 +760,7 @@
     </x:row>
     <x:row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -780,7 +780,7 @@
     </x:row>
     <x:row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>21</x:v>
@@ -800,7 +800,7 @@
     </x:row>
     <x:row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>21</x:v>
@@ -820,7 +820,7 @@
     </x:row>
     <x:row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>21</x:v>
@@ -840,7 +840,7 @@
     </x:row>
     <x:row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>21</x:v>
@@ -860,7 +860,7 @@
     </x:row>
     <x:row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>21</x:v>
@@ -880,7 +880,7 @@
     </x:row>
     <x:row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>21</x:v>
@@ -900,7 +900,7 @@
     </x:row>
     <x:row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>21</x:v>
@@ -920,7 +920,7 @@
     </x:row>
     <x:row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
@@ -940,7 +940,7 @@
     </x:row>
     <x:row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>21</x:v>
@@ -960,7 +960,7 @@
     </x:row>
     <x:row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>21</x:v>
@@ -980,7 +980,7 @@
     </x:row>
     <x:row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
@@ -1000,7 +1000,7 @@
     </x:row>
     <x:row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>21</x:v>
@@ -1020,7 +1020,7 @@
     </x:row>
     <x:row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A23" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>21</x:v>
@@ -1040,7 +1040,7 @@
     </x:row>
     <x:row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
@@ -1060,7 +1060,7 @@
     </x:row>
     <x:row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>21</x:v>
@@ -1080,7 +1080,7 @@
     </x:row>
     <x:row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>21</x:v>
@@ -1100,7 +1100,7 @@
     </x:row>
     <x:row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
@@ -1120,7 +1120,7 @@
     </x:row>
     <x:row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>21</x:v>
@@ -1140,7 +1140,7 @@
     </x:row>
     <x:row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1160,7 +1160,7 @@
     </x:row>
     <x:row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>21</x:v>
@@ -1180,7 +1180,7 @@
     </x:row>
     <x:row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A31" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>21</x:v>
@@ -1200,7 +1200,7 @@
     </x:row>
     <x:row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A32" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
@@ -1220,7 +1220,7 @@
     </x:row>
     <x:row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>21</x:v>
@@ -1240,7 +1240,7 @@
     </x:row>
     <x:row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A34" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>21</x:v>
@@ -1260,7 +1260,7 @@
     </x:row>
     <x:row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -1280,7 +1280,7 @@
     </x:row>
     <x:row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A36" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>21</x:v>
@@ -1300,7 +1300,7 @@
     </x:row>
     <x:row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>21</x:v>
@@ -1320,7 +1320,7 @@
     </x:row>
     <x:row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
@@ -1340,7 +1340,7 @@
     </x:row>
     <x:row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>21</x:v>
@@ -1360,7 +1360,7 @@
     </x:row>
     <x:row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -1380,7 +1380,7 @@
     </x:row>
     <x:row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>21</x:v>
@@ -1400,7 +1400,7 @@
     </x:row>
     <x:row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A42" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
@@ -1420,7 +1420,7 @@
     </x:row>
     <x:row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>21</x:v>
@@ -1440,7 +1440,7 @@
     </x:row>
     <x:row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>21</x:v>
@@ -1460,7 +1460,7 @@
     </x:row>
     <x:row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
@@ -1480,7 +1480,7 @@
     </x:row>
     <x:row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A46" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>21</x:v>
@@ -1500,7 +1500,7 @@
     </x:row>
     <x:row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A47" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>21</x:v>
@@ -1520,7 +1520,7 @@
     </x:row>
     <x:row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
@@ -1540,7 +1540,7 @@
     </x:row>
     <x:row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A49" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>21</x:v>
@@ -1560,7 +1560,7 @@
     </x:row>
     <x:row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A50" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>21</x:v>
@@ -1580,7 +1580,7 @@
     </x:row>
     <x:row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A51" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
@@ -1600,7 +1600,7 @@
     </x:row>
     <x:row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A52" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>21</x:v>
@@ -1620,7 +1620,7 @@
     </x:row>
     <x:row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A53" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
@@ -1640,7 +1640,7 @@
     </x:row>
     <x:row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A54" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>21</x:v>
@@ -1660,7 +1660,7 @@
     </x:row>
     <x:row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A55" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>21</x:v>
@@ -1680,7 +1680,7 @@
     </x:row>
     <x:row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A56" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
@@ -1700,7 +1700,7 @@
     </x:row>
     <x:row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A57" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>21</x:v>
@@ -1720,7 +1720,7 @@
     </x:row>
     <x:row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A58" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>21</x:v>
@@ -1740,7 +1740,7 @@
     </x:row>
     <x:row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A59" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
@@ -1760,7 +1760,7 @@
     </x:row>
     <x:row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A60" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>21</x:v>
@@ -1780,7 +1780,7 @@
     </x:row>
     <x:row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A61" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>21</x:v>
@@ -1800,7 +1800,7 @@
     </x:row>
     <x:row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A62" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
@@ -1820,7 +1820,7 @@
     </x:row>
     <x:row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A63" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>21</x:v>
@@ -1840,7 +1840,7 @@
     </x:row>
     <x:row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A64" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>21</x:v>
@@ -1860,7 +1860,7 @@
     </x:row>
     <x:row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A65" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
@@ -1880,7 +1880,7 @@
     </x:row>
     <x:row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A66" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>21</x:v>
@@ -1900,16 +1900,16 @@
     </x:row>
     <x:row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A67" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C67" s="0">
         <x:v>1234</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>17</x:v>
@@ -1920,7 +1920,7 @@
     </x:row>
     <x:row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A68" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>21</x:v>
@@ -1940,7 +1940,7 @@
     </x:row>
     <x:row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A69" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>21</x:v>
@@ -1960,7 +1960,7 @@
     </x:row>
     <x:row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>21</x:v>
@@ -1980,7 +1980,7 @@
     </x:row>
     <x:row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A71" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>21</x:v>
@@ -2000,7 +2000,7 @@
     </x:row>
     <x:row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>21</x:v>
@@ -2020,7 +2020,7 @@
     </x:row>
     <x:row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A73" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>21</x:v>
@@ -2040,7 +2040,7 @@
     </x:row>
     <x:row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A74" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>21</x:v>
@@ -2060,7 +2060,7 @@
     </x:row>
     <x:row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A75" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>21</x:v>
@@ -2080,7 +2080,7 @@
     </x:row>
     <x:row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A76" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>21</x:v>
@@ -2100,7 +2100,7 @@
     </x:row>
     <x:row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A77" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>21</x:v>
@@ -2120,7 +2120,7 @@
     </x:row>
     <x:row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A78" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>21</x:v>
@@ -2140,7 +2140,7 @@
     </x:row>
     <x:row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A79" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>21</x:v>
@@ -2160,7 +2160,7 @@
     </x:row>
     <x:row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A80" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>21</x:v>
@@ -2180,7 +2180,7 @@
     </x:row>
     <x:row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A81" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>21</x:v>
@@ -2200,7 +2200,7 @@
     </x:row>
     <x:row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A82" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>21</x:v>
@@ -2220,7 +2220,7 @@
     </x:row>
     <x:row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A83" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>21</x:v>
@@ -2240,7 +2240,7 @@
     </x:row>
     <x:row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A84" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>21</x:v>
@@ -2260,7 +2260,7 @@
     </x:row>
     <x:row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>21</x:v>
@@ -2280,10 +2280,10 @@
     </x:row>
     <x:row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>27</x:v>
@@ -2300,7 +2300,7 @@
     </x:row>
     <x:row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A87" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>21</x:v>
@@ -2360,7 +2360,7 @@
     </x:row>
     <x:row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>21</x:v>
@@ -2380,7 +2380,7 @@
     </x:row>
     <x:row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A91" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>21</x:v>
@@ -2400,7 +2400,7 @@
     </x:row>
     <x:row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A92" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>21</x:v>
@@ -2420,7 +2420,7 @@
     </x:row>
     <x:row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A93" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>21</x:v>
@@ -2440,7 +2440,7 @@
     </x:row>
     <x:row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A94" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>21</x:v>
@@ -2460,7 +2460,7 @@
     </x:row>
     <x:row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A95" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>21</x:v>
@@ -2480,7 +2480,7 @@
     </x:row>
     <x:row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A96" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>21</x:v>
@@ -2500,7 +2500,7 @@
     </x:row>
     <x:row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A97" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>21</x:v>
@@ -2520,7 +2520,7 @@
     </x:row>
     <x:row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A98" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>21</x:v>
@@ -2540,7 +2540,7 @@
     </x:row>
     <x:row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A99" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>21</x:v>
@@ -2560,7 +2560,7 @@
     </x:row>
     <x:row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A100" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>21</x:v>
@@ -2580,7 +2580,7 @@
     </x:row>
     <x:row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A101" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>21</x:v>
@@ -2600,7 +2600,7 @@
     </x:row>
     <x:row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A102" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>21</x:v>
@@ -2620,7 +2620,7 @@
     </x:row>
     <x:row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A103" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
         <x:v>21</x:v>
@@ -2640,7 +2640,7 @@
     </x:row>
     <x:row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A104" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
         <x:v>21</x:v>
@@ -2660,7 +2660,7 @@
     </x:row>
     <x:row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A105" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
         <x:v>21</x:v>
@@ -2680,7 +2680,7 @@
     </x:row>
     <x:row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A106" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
         <x:v>21</x:v>
@@ -2700,7 +2700,7 @@
     </x:row>
     <x:row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A107" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
         <x:v>21</x:v>
@@ -2720,7 +2720,7 @@
     </x:row>
     <x:row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A108" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
         <x:v>21</x:v>
@@ -2740,7 +2740,7 @@
     </x:row>
     <x:row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A109" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
         <x:v>21</x:v>
@@ -2760,7 +2760,7 @@
     </x:row>
     <x:row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A110" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
         <x:v>21</x:v>
@@ -2780,7 +2780,7 @@
     </x:row>
     <x:row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A111" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
         <x:v>21</x:v>
@@ -2800,7 +2800,7 @@
     </x:row>
     <x:row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A112" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
         <x:v>21</x:v>
@@ -2820,7 +2820,7 @@
     </x:row>
     <x:row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A113" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
         <x:v>21</x:v>
@@ -2840,7 +2840,7 @@
     </x:row>
     <x:row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A114" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
         <x:v>21</x:v>
@@ -2860,7 +2860,7 @@
     </x:row>
     <x:row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A115" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
         <x:v>21</x:v>
@@ -2880,7 +2880,7 @@
     </x:row>
     <x:row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A116" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
         <x:v>21</x:v>
@@ -2900,7 +2900,7 @@
     </x:row>
     <x:row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A117" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
         <x:v>21</x:v>
@@ -2920,7 +2920,7 @@
     </x:row>
     <x:row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A118" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
         <x:v>21</x:v>
@@ -2940,7 +2940,7 @@
     </x:row>
     <x:row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A119" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
         <x:v>21</x:v>
@@ -2960,7 +2960,7 @@
     </x:row>
     <x:row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A120" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
         <x:v>21</x:v>
@@ -2980,7 +2980,7 @@
     </x:row>
     <x:row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A121" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
         <x:v>21</x:v>
@@ -3000,7 +3000,7 @@
     </x:row>
     <x:row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A122" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
         <x:v>21</x:v>
@@ -3020,7 +3020,7 @@
     </x:row>
     <x:row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A123" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
         <x:v>21</x:v>
@@ -3040,7 +3040,7 @@
     </x:row>
     <x:row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A124" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
         <x:v>21</x:v>
@@ -3060,7 +3060,7 @@
     </x:row>
     <x:row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A125" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
         <x:v>21</x:v>
@@ -3080,7 +3080,7 @@
     </x:row>
     <x:row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A126" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
         <x:v>21</x:v>
@@ -3100,7 +3100,7 @@
     </x:row>
     <x:row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A127" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
         <x:v>21</x:v>
@@ -3120,7 +3120,7 @@
     </x:row>
     <x:row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A128" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
         <x:v>21</x:v>
@@ -3140,7 +3140,7 @@
     </x:row>
     <x:row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A129" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
         <x:v>21</x:v>
@@ -3160,7 +3160,7 @@
     </x:row>
     <x:row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A130" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
         <x:v>21</x:v>
@@ -3180,7 +3180,7 @@
     </x:row>
     <x:row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A131" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>21</x:v>
@@ -3200,7 +3200,7 @@
     </x:row>
     <x:row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A132" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
         <x:v>21</x:v>
@@ -3220,7 +3220,7 @@
     </x:row>
     <x:row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A133" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
         <x:v>21</x:v>
@@ -3240,7 +3240,7 @@
     </x:row>
     <x:row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A134" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
         <x:v>21</x:v>
@@ -3260,7 +3260,7 @@
     </x:row>
     <x:row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A135" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
         <x:v>21</x:v>
@@ -3280,7 +3280,7 @@
     </x:row>
     <x:row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A136" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
         <x:v>21</x:v>
@@ -3300,7 +3300,7 @@
     </x:row>
     <x:row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A137" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
         <x:v>21</x:v>
@@ -3320,7 +3320,7 @@
     </x:row>
     <x:row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A138" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
         <x:v>21</x:v>
@@ -3340,7 +3340,7 @@
     </x:row>
     <x:row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A139" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
         <x:v>21</x:v>
@@ -3360,7 +3360,7 @@
     </x:row>
     <x:row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A140" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
         <x:v>21</x:v>
@@ -3380,7 +3380,7 @@
     </x:row>
     <x:row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A141" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
         <x:v>21</x:v>
@@ -3400,7 +3400,7 @@
     </x:row>
     <x:row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A142" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
         <x:v>21</x:v>
@@ -3420,7 +3420,7 @@
     </x:row>
     <x:row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A143" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
         <x:v>21</x:v>
@@ -3440,7 +3440,7 @@
     </x:row>
     <x:row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A144" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
         <x:v>21</x:v>
@@ -3460,7 +3460,7 @@
     </x:row>
     <x:row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A145" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
         <x:v>21</x:v>
@@ -3480,7 +3480,7 @@
     </x:row>
     <x:row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A146" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
         <x:v>21</x:v>
@@ -3500,7 +3500,7 @@
     </x:row>
     <x:row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A147" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
         <x:v>21</x:v>
@@ -3520,7 +3520,7 @@
     </x:row>
     <x:row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A148" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
         <x:v>21</x:v>
@@ -3540,7 +3540,7 @@
     </x:row>
     <x:row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A149" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
         <x:v>21</x:v>
@@ -3560,7 +3560,7 @@
     </x:row>
     <x:row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A150" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
         <x:v>21</x:v>
@@ -3580,7 +3580,7 @@
     </x:row>
     <x:row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A151" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
         <x:v>21</x:v>
@@ -3600,7 +3600,7 @@
     </x:row>
     <x:row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A152" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
         <x:v>21</x:v>
@@ -3620,7 +3620,7 @@
     </x:row>
     <x:row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A153" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
         <x:v>21</x:v>
@@ -3640,7 +3640,7 @@
     </x:row>
     <x:row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A154" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
         <x:v>21</x:v>
@@ -3680,7 +3680,7 @@
     </x:row>
     <x:row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A156" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
         <x:v>21</x:v>
@@ -3700,7 +3700,7 @@
     </x:row>
     <x:row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A157" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
         <x:v>21</x:v>
@@ -3720,7 +3720,7 @@
     </x:row>
     <x:row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A158" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
         <x:v>21</x:v>
@@ -3740,7 +3740,7 @@
     </x:row>
     <x:row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A159" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
         <x:v>21</x:v>
@@ -3760,7 +3760,7 @@
     </x:row>
     <x:row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A160" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
         <x:v>21</x:v>
@@ -3780,7 +3780,7 @@
     </x:row>
     <x:row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A161" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
         <x:v>21</x:v>
@@ -3800,7 +3800,7 @@
     </x:row>
     <x:row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A162" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
         <x:v>21</x:v>
@@ -3820,7 +3820,7 @@
     </x:row>
     <x:row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A163" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
         <x:v>21</x:v>
@@ -3840,7 +3840,7 @@
     </x:row>
     <x:row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A164" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
         <x:v>21</x:v>
@@ -3860,7 +3860,7 @@
     </x:row>
     <x:row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A165" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
         <x:v>21</x:v>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -3895,12 +3895,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F166" s="0">
-        <x:v>12225</x:v>
+        <x:v>12235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -671,7 +671,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>120</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3351,6 +3351,526 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F140" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:6">
+      <x:c r="A141" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F141" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:6">
+      <x:c r="A142" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F142" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:6">
+      <x:c r="A143" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F143" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:6">
+      <x:c r="A144" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F144" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:6">
+      <x:c r="A145" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F145" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:6">
+      <x:c r="A146" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F146" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:6">
+      <x:c r="A147" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F147" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:6">
+      <x:c r="A148" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F148" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:6">
+      <x:c r="A149" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F149" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:6">
+      <x:c r="A150" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F150" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:6">
+      <x:c r="A151" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F151" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:6">
+      <x:c r="A152" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F152" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:6">
+      <x:c r="A153" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F153" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:6">
+      <x:c r="A154" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F154" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:6">
+      <x:c r="A155" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F155" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:6">
+      <x:c r="A156" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F156" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:6">
+      <x:c r="A157" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F157" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:6">
+      <x:c r="A158" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F158" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:6">
+      <x:c r="A159" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F159" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:6">
+      <x:c r="A160" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F160" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:6">
+      <x:c r="A161" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F161" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:6">
+      <x:c r="A162" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F162" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:6">
+      <x:c r="A163" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F163" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:6">
+      <x:c r="A164" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F164" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:6">
+      <x:c r="A165" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F165" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:6">
+      <x:c r="A166" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F166" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>187</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>315</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>401</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>504</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>609</x:v>
+        <x:v>951</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -6506,9 +6506,269 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="298" spans="1:6">
+      <x:c r="A298" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C298" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D298" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E298" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F298" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:6">
+      <x:c r="A299" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C299" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D299" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E299" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F299" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:6">
+      <x:c r="A300" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C300" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D300" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E300" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F300" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:6">
+      <x:c r="A301" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B301" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C301" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D301" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E301" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F301" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:6">
+      <x:c r="A302" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B302" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C302" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D302" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E302" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F302" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:6">
+      <x:c r="A303" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B303" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C303" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D303" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E303" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F303" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:6">
+      <x:c r="A304" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B304" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C304" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D304" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E304" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F304" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:6">
+      <x:c r="A305" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B305" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C305" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D305" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E305" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F305" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:6">
+      <x:c r="A306" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B306" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C306" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D306" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E306" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F306" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:6">
+      <x:c r="A307" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B307" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C307" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D307" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E307" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F307" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:6">
+      <x:c r="A308" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B308" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C308" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D308" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E308" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F308" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:6">
+      <x:c r="A309" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B309" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C309" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D309" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E309" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F309" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:6">
+      <x:c r="A310" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B310" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C310" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D310" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E310" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F310" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>951</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>78</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>115</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>381</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>386</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -695,7 +695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>449</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F166" s="0">
-        <x:v>12235</x:v>
+        <x:v>11145</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -164,6 +164,18 @@
   </x:si>
   <x:si>
     <x:t>admin@admin.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diana1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567!A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207546055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diana@speedog.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3898,9 +3910,29 @@
         <x:v>11145</x:v>
       </x:c>
     </x:row>
+    <x:row r="167" spans="1:6">
+      <x:c r="A167" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F167" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId7"/>
+    <x:hyperlink ref="D67" r:id="rId6"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -707,7 +707,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="D67" r:id="rId6"/>
+    <x:hyperlink ref="D67" r:id="rId7"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9833D114-EE10-414E-B169-094C1248576A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5530BFA3-E16D-4994-B9BA-4422C2D6C8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CECFE1-43CE-443C-8090-04B73B33EF1C}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{CB2C1D9B-843A-4C3B-B57D-582EAB370EF6}"/>
   </x:bookViews>
@@ -176,6 +176,12 @@
   </x:si>
   <x:si>
     <x:t>Diana@speedog.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admin2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456788</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -253,6 +259,10 @@
     </x:ext>
   </x:extLst>
 </x:styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,10 +585,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F166"/>
+  <x:dimension ref="A1:F168"/>
   <x:sheetViews>
     <x:sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <x:selection activeCell="F166" sqref="F166"/>
+      <x:selection activeCell="F169" sqref="F169"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3910,7 +3920,7 @@
         <x:v>11145</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:6">
+    <x:row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <x:c r="A167" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -3928,6 +3938,26 @@
       </x:c>
       <x:c r="F167" s="0">
         <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <x:c r="A168" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F168" s="0">
+        <x:v>870</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -178,7 +178,7 @@
     <x:t>Diana@speedog.com</x:t>
   </x:si>
   <x:si>
-    <x:t>admin2</x:t>
+    <x:t>ilan9912</x:t>
   </x:si>
   <x:si>
     <x:t>123456788</x:t>
@@ -3957,7 +3957,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F168" s="0">
-        <x:v>870</x:v>
+        <x:v>883</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,133 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Users" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/adf4de8bd431df76/Desktop/Software-Engineering/Year-B/Testing and Quality/git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_46E224C7D320D3F04E26DFE9D9FF5436D69836F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC42B3E0-BAE3-42F3-9B4B-669EC06BDBCE}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Username</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Balance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>moshe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123456!M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206676850</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m@m.c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>זכר</x:t>
-  </x:si>
-  <x:si>
-    <x:t>udivak1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123456!U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>206676854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>udivak69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209478808</x:t>
-  </x:si>
-  <x:si>
-    <x:t>u@u.c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>נקבה</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>moshe1</t>
+  </si>
+  <si>
+    <t>123456!M</t>
+  </si>
+  <si>
+    <t>206676850</t>
+  </si>
+  <si>
+    <t>m@m.c</t>
+  </si>
+  <si>
+    <t>זכר</t>
+  </si>
+  <si>
+    <t>udivak1</t>
+  </si>
+  <si>
+    <t>123456!U</t>
+  </si>
+  <si>
+    <t>206676854</t>
+  </si>
+  <si>
+    <t>udivak69</t>
+  </si>
+  <si>
+    <t>209478808</t>
+  </si>
+  <si>
+    <t>u@u.c</t>
+  </si>
+  <si>
+    <t>נקבה</t>
+  </si>
+  <si>
+    <t>mosesb1</t>
+  </si>
+  <si>
+    <t>206676843</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,101 +417,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>6915</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>900</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>6915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>